--- a/weather_data_table.xlsx
+++ b/weather_data_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>City</t>
   </si>
@@ -61,19 +61,13 @@
     <t>Clear</t>
   </si>
   <si>
+    <t>Rain</t>
+  </si>
+  <si>
     <t>Clouds</t>
   </si>
   <si>
-    <t>Rain</t>
-  </si>
-  <si>
     <t>clear sky</t>
-  </si>
-  <si>
-    <t>broken clouds</t>
-  </si>
-  <si>
-    <t>scattered clouds</t>
   </si>
   <si>
     <t>light rain</t>
@@ -483,13 +477,13 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>9.51</v>
+        <v>10.62</v>
       </c>
       <c r="E2">
         <v>43</v>
       </c>
       <c r="F2">
-        <v>6.69</v>
+        <v>4.12</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -512,19 +506,19 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>9.9</v>
+        <v>9.75</v>
       </c>
       <c r="E3">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>3.09</v>
+        <v>1.03</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -538,22 +532,22 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>9.529999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="E4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F4">
-        <v>4.63</v>
+        <v>3.13</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -564,25 +558,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>9.33</v>
+      </c>
+      <c r="E5">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>4.63</v>
+      </c>
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>9.85</v>
-      </c>
-      <c r="E5">
-        <v>81</v>
-      </c>
-      <c r="F5">
-        <v>3.09</v>
-      </c>
-      <c r="G5">
-        <v>75</v>
-      </c>
       <c r="H5">
-        <v>0.37</v>
+        <v>0.82</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -593,19 +587,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>8.99</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="G6">
         <v>99</v>

--- a/weather_data_table.xlsx
+++ b/weather_data_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>City</t>
   </si>
@@ -61,19 +61,13 @@
     <t>Clear</t>
   </si>
   <si>
-    <t>Rain</t>
-  </si>
-  <si>
     <t>Clouds</t>
   </si>
   <si>
     <t>clear sky</t>
   </si>
   <si>
-    <t>light rain</t>
-  </si>
-  <si>
-    <t>overcast clouds</t>
+    <t>few clouds</t>
   </si>
 </sst>
 </file>
@@ -474,16 +468,16 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>10.62</v>
+        <v>13.93</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F2">
-        <v>4.12</v>
+        <v>6.69</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -500,25 +494,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>9.75</v>
+        <v>20.16</v>
       </c>
       <c r="E3">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>1.03</v>
+        <v>4.63</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -529,25 +523,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>8.9</v>
+        <v>22.07</v>
       </c>
       <c r="E4">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F4">
-        <v>3.13</v>
+        <v>2.24</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -558,25 +552,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>9.33</v>
+        <v>20.22</v>
       </c>
       <c r="E5">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>4.63</v>
+        <v>5.14</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -587,22 +581,22 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>8.720000000000001</v>
+        <v>19.36</v>
       </c>
       <c r="E6">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F6">
-        <v>2.65</v>
+        <v>4.74</v>
       </c>
       <c r="G6">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>0</v>

--- a/weather_data_table.xlsx
+++ b/weather_data_table.xlsx
@@ -471,13 +471,13 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>13.93</v>
+        <v>16.17</v>
       </c>
       <c r="E2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F2">
-        <v>6.69</v>
+        <v>8.23</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -500,13 +500,13 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>20.16</v>
+        <v>21.08</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>4.63</v>
+        <v>4.12</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>22.07</v>
+        <v>22.49</v>
       </c>
       <c r="E4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>2.24</v>
+        <v>4.63</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -558,13 +558,13 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>20.22</v>
+        <v>21.49</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>5.14</v>
+        <v>4.63</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -587,16 +587,16 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>19.36</v>
+        <v>20.17</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>4.74</v>
+        <v>4.94</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>0</v>
